--- a/20230215_VXI-11 通信の概要/514_VXI_11_Table_B_3.xlsx
+++ b/20230215_VXI-11 通信の概要/514_VXI_11_Table_B_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\Qiita\20230215_VXI-11 通信の概要\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83C7F4D3-5EB4-4953-B801-C59ECA1965FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1A94ED-06D8-40FB-91FB-3BF9F2BE535F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EDF45EBB-E54E-4B5B-AED4-E73175C7B73C}"/>
   </bookViews>
@@ -168,55 +168,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>221730</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>181186</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFFDEBC-7A6A-46AA-AE74-192B45B159DE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1174230"/>
-          <a:ext cx="7172536" cy="1426095"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -591,6 +542,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>